--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_17_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_17_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-91952.21900323665</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35730204.48664511</v>
+        <v>35205725.26429581</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6.294184525612512e-11</v>
+        <v>190810.4198896358</v>
       </c>
     </row>
     <row r="11">
@@ -25877,49 +25879,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>423.590221574262</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H44" t="n">
-        <v>364.0964285766221</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I44" t="n">
-        <v>307.6301510626203</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J44" t="n">
-        <v>264.7796353702787</v>
+        <v>147.6228773539549</v>
       </c>
       <c r="K44" t="n">
-        <v>321.881407153284</v>
+        <v>146.2937966433331</v>
       </c>
       <c r="L44" t="n">
-        <v>344.8083818936063</v>
+        <v>126.9764245374035</v>
       </c>
       <c r="M44" t="n">
-        <v>336.8813660948863</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N44" t="n">
-        <v>335.5166055100142</v>
+        <v>89.2146190330682</v>
       </c>
       <c r="O44" t="n">
-        <v>336.5186342042169</v>
+        <v>103.9426526760898</v>
       </c>
       <c r="P44" t="n">
-        <v>338.1782562920817</v>
+        <v>139.680036893329</v>
       </c>
       <c r="Q44" t="n">
-        <v>325.1220714413824</v>
+        <v>176.058175334102</v>
       </c>
       <c r="R44" t="n">
-        <v>315.2938490531682</v>
+        <v>228.5844930892465</v>
       </c>
       <c r="S44" t="n">
-        <v>267.3897500463082</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T44" t="n">
-        <v>225.5143983667847</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U44" t="n">
-        <v>248.90160553674</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,49 +25958,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>161.7691958893245</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H45" t="n">
-        <v>145.0346254522244</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I45" t="n">
-        <v>145.55148075</v>
+        <v>120.1229753234883</v>
       </c>
       <c r="J45" t="n">
-        <v>185.500029</v>
+        <v>115.7222665296193</v>
       </c>
       <c r="K45" t="n">
-        <v>201.5931045</v>
+        <v>82.33179439963286</v>
       </c>
       <c r="L45" t="n">
-        <v>202.635780428066</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M45" t="n">
-        <v>207.8710246109518</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N45" t="n">
-        <v>192.087253921875</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>208.5470075</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P45" t="n">
-        <v>195.937570843458</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q45" t="n">
-        <v>204.7233446008065</v>
+        <v>110.4467558195075</v>
       </c>
       <c r="R45" t="n">
-        <v>213.0562745472973</v>
+        <v>167.2007429781635</v>
       </c>
       <c r="S45" t="n">
-        <v>222.0319792704162</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T45" t="n">
-        <v>233.1353692460508</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.8667022829468</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H46" t="n">
-        <v>173.1995317301106</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I46" t="n">
-        <v>186.7511453295697</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J46" t="n">
-        <v>185.7308038551168</v>
+        <v>141.954478094628</v>
       </c>
       <c r="K46" t="n">
-        <v>188.681890074408</v>
+        <v>116.743939294024</v>
       </c>
       <c r="L46" t="n">
-        <v>197.268839061311</v>
+        <v>105.2130294320152</v>
       </c>
       <c r="M46" t="n">
-        <v>203.1789590233724</v>
+        <v>106.1190149462079</v>
       </c>
       <c r="N46" t="n">
-        <v>186.7401087804035</v>
+        <v>91.98803323375212</v>
       </c>
       <c r="O46" t="n">
-        <v>202.4926874858201</v>
+        <v>114.9738096506548</v>
       </c>
       <c r="P46" t="n">
-        <v>201.4272059218784</v>
+        <v>126.5396865805459</v>
       </c>
       <c r="Q46" t="n">
-        <v>221.5760648830646</v>
+        <v>169.7278282134153</v>
       </c>
       <c r="R46" t="n">
-        <v>249.4848999638325</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S46" t="n">
-        <v>254.7116329346421</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7883730085969</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-5.443325790110975e-12</v>
+        <v>330421.9100800841</v>
       </c>
     </row>
   </sheetData>
@@ -26353,7 +26355,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>36713.54556445379</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>228536.0395340295</v>
       </c>
     </row>
     <row r="4">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>7485.374565552011</v>
       </c>
     </row>
     <row r="6">
@@ -26561,7 +26563,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-199307.8685351278</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>343.3658057592666</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>343.3658057592665</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>217.8319573562029</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.04254799883895</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>119.2613101003672</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_17_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_17_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91952.21900323665</v>
+        <v>-275907.0637212768</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35205725.26429581</v>
+        <v>28766108.31770371</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190810.4198896358</v>
+        <v>3172452.109456122</v>
       </c>
     </row>
     <row r="11">
@@ -23272,49 +23272,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>423.590221574262</v>
+        <v>422.0568960504156</v>
       </c>
       <c r="H11" t="n">
-        <v>364.0964285766221</v>
+        <v>348.3932585555301</v>
       </c>
       <c r="I11" t="n">
-        <v>307.6301510626203</v>
+        <v>248.5166188045319</v>
       </c>
       <c r="J11" t="n">
-        <v>264.7796353702787</v>
+        <v>134.6405481907202</v>
       </c>
       <c r="K11" t="n">
-        <v>321.881407153284</v>
+        <v>126.8366505493073</v>
       </c>
       <c r="L11" t="n">
-        <v>344.8083818936063</v>
+        <v>102.8381142892153</v>
       </c>
       <c r="M11" t="n">
-        <v>336.8813660948863</v>
+        <v>67.64282070579191</v>
       </c>
       <c r="N11" t="n">
-        <v>335.5166055100142</v>
+        <v>61.92149897629116</v>
       </c>
       <c r="O11" t="n">
-        <v>336.5186342042169</v>
+        <v>78.17053334824146</v>
       </c>
       <c r="P11" t="n">
-        <v>338.1782562920817</v>
+        <v>117.6841293060643</v>
       </c>
       <c r="Q11" t="n">
-        <v>325.1220714413824</v>
+        <v>159.5401647781143</v>
       </c>
       <c r="R11" t="n">
-        <v>315.2938490531682</v>
+        <v>218.9760896158517</v>
       </c>
       <c r="S11" t="n">
-        <v>267.3897500463082</v>
+        <v>232.4490946716583</v>
       </c>
       <c r="T11" t="n">
-        <v>225.5143983667847</v>
+        <v>218.802265886147</v>
       </c>
       <c r="U11" t="n">
-        <v>248.90160553674</v>
+        <v>248.7789394948323</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23351,49 +23351,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>161.7691958893245</v>
+        <v>160.948794407391</v>
       </c>
       <c r="H12" t="n">
-        <v>145.0346254522244</v>
+        <v>137.1112742977616</v>
       </c>
       <c r="I12" t="n">
-        <v>145.55148075</v>
+        <v>117.3052016571149</v>
       </c>
       <c r="J12" t="n">
-        <v>185.500029</v>
+        <v>107.9900802178551</v>
       </c>
       <c r="K12" t="n">
-        <v>201.5931045</v>
+        <v>69.11625642831203</v>
       </c>
       <c r="L12" t="n">
-        <v>202.635780428066</v>
+        <v>24.50430953720269</v>
       </c>
       <c r="M12" t="n">
-        <v>207.8710246109518</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>192.087253921875</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>208.5470075</v>
+        <v>13.35262508576585</v>
       </c>
       <c r="P12" t="n">
-        <v>195.937570843458</v>
+        <v>39.2768703153011</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.7233446008065</v>
+        <v>99.99981508242075</v>
       </c>
       <c r="R12" t="n">
-        <v>213.0562745472973</v>
+        <v>162.1194176251468</v>
       </c>
       <c r="S12" t="n">
-        <v>222.0319792704162</v>
+        <v>206.7933815687133</v>
       </c>
       <c r="T12" t="n">
-        <v>233.1353692460508</v>
+        <v>229.8285755535207</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6991748357862</v>
+        <v>249.64520105408</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23430,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.8667022829468</v>
+        <v>169.1789052395657</v>
       </c>
       <c r="H13" t="n">
-        <v>173.1995317301106</v>
+        <v>167.0843907444132</v>
       </c>
       <c r="I13" t="n">
-        <v>186.7511453295697</v>
+        <v>166.0672124249817</v>
       </c>
       <c r="J13" t="n">
-        <v>185.7308038551168</v>
+        <v>137.103552888073</v>
       </c>
       <c r="K13" t="n">
-        <v>188.681890074408</v>
+        <v>108.7723790343128</v>
       </c>
       <c r="L13" t="n">
-        <v>197.268839061311</v>
+        <v>95.01217681172437</v>
       </c>
       <c r="M13" t="n">
-        <v>203.1789590233724</v>
+        <v>95.36364612318764</v>
       </c>
       <c r="N13" t="n">
-        <v>186.7401087804035</v>
+        <v>81.48840304191189</v>
       </c>
       <c r="O13" t="n">
-        <v>202.4926874858201</v>
+        <v>105.2757017540986</v>
       </c>
       <c r="P13" t="n">
-        <v>201.4272059218784</v>
+        <v>118.2412798751314</v>
       </c>
       <c r="Q13" t="n">
-        <v>221.5760648830646</v>
+        <v>163.9824415504889</v>
       </c>
       <c r="R13" t="n">
-        <v>249.4848999638325</v>
+        <v>218.5590438132605</v>
       </c>
       <c r="S13" t="n">
-        <v>254.7116329346421</v>
+        <v>242.7252062786279</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7883730085969</v>
+        <v>217.8496038232412</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2165540145173</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23509,49 +23509,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>423.590221574262</v>
+        <v>422.0568960504156</v>
       </c>
       <c r="H14" t="n">
-        <v>364.0964285766221</v>
+        <v>348.3932585555301</v>
       </c>
       <c r="I14" t="n">
-        <v>307.6301510626203</v>
+        <v>248.5166188045319</v>
       </c>
       <c r="J14" t="n">
-        <v>264.7796353702787</v>
+        <v>134.6405481907202</v>
       </c>
       <c r="K14" t="n">
-        <v>321.881407153284</v>
+        <v>126.8366505493073</v>
       </c>
       <c r="L14" t="n">
-        <v>344.8083818936063</v>
+        <v>102.8381142892153</v>
       </c>
       <c r="M14" t="n">
-        <v>336.8813660948863</v>
+        <v>67.64282070579191</v>
       </c>
       <c r="N14" t="n">
-        <v>335.5166055100142</v>
+        <v>61.92149897629116</v>
       </c>
       <c r="O14" t="n">
-        <v>336.5186342042169</v>
+        <v>78.17053334824146</v>
       </c>
       <c r="P14" t="n">
-        <v>338.1782562920817</v>
+        <v>117.6841293060643</v>
       </c>
       <c r="Q14" t="n">
-        <v>325.1220714413824</v>
+        <v>159.5401647781143</v>
       </c>
       <c r="R14" t="n">
-        <v>315.2938490531682</v>
+        <v>218.9760896158517</v>
       </c>
       <c r="S14" t="n">
-        <v>267.3897500463082</v>
+        <v>232.4490946716583</v>
       </c>
       <c r="T14" t="n">
-        <v>225.5143983667847</v>
+        <v>218.802265886147</v>
       </c>
       <c r="U14" t="n">
-        <v>248.90160553674</v>
+        <v>248.7789394948323</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23588,49 +23588,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>161.7691958893245</v>
+        <v>160.948794407391</v>
       </c>
       <c r="H15" t="n">
-        <v>145.0346254522244</v>
+        <v>137.1112742977616</v>
       </c>
       <c r="I15" t="n">
-        <v>145.55148075</v>
+        <v>117.3052016571149</v>
       </c>
       <c r="J15" t="n">
-        <v>185.500029</v>
+        <v>107.9900802178551</v>
       </c>
       <c r="K15" t="n">
-        <v>201.5931045</v>
+        <v>69.11625642831203</v>
       </c>
       <c r="L15" t="n">
-        <v>202.635780428066</v>
+        <v>24.50430953720269</v>
       </c>
       <c r="M15" t="n">
-        <v>207.8710246109518</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>192.087253921875</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>208.5470075</v>
+        <v>13.35262508576585</v>
       </c>
       <c r="P15" t="n">
-        <v>195.937570843458</v>
+        <v>39.2768703153011</v>
       </c>
       <c r="Q15" t="n">
-        <v>204.7233446008065</v>
+        <v>99.99981508242075</v>
       </c>
       <c r="R15" t="n">
-        <v>213.0562745472973</v>
+        <v>162.1194176251468</v>
       </c>
       <c r="S15" t="n">
-        <v>222.0319792704162</v>
+        <v>206.7933815687133</v>
       </c>
       <c r="T15" t="n">
-        <v>233.1353692460508</v>
+        <v>229.8285755535207</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6991748357862</v>
+        <v>249.64520105408</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23667,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.8667022829468</v>
+        <v>169.1789052395657</v>
       </c>
       <c r="H16" t="n">
-        <v>173.1995317301106</v>
+        <v>167.0843907444132</v>
       </c>
       <c r="I16" t="n">
-        <v>186.7511453295697</v>
+        <v>166.0672124249817</v>
       </c>
       <c r="J16" t="n">
-        <v>185.7308038551168</v>
+        <v>137.103552888073</v>
       </c>
       <c r="K16" t="n">
-        <v>188.681890074408</v>
+        <v>108.7723790343128</v>
       </c>
       <c r="L16" t="n">
-        <v>197.268839061311</v>
+        <v>95.01217681172437</v>
       </c>
       <c r="M16" t="n">
-        <v>203.1789590233724</v>
+        <v>95.36364612318764</v>
       </c>
       <c r="N16" t="n">
-        <v>186.7401087804035</v>
+        <v>81.48840304191189</v>
       </c>
       <c r="O16" t="n">
-        <v>202.4926874858201</v>
+        <v>105.2757017540986</v>
       </c>
       <c r="P16" t="n">
-        <v>201.4272059218784</v>
+        <v>118.2412798751314</v>
       </c>
       <c r="Q16" t="n">
-        <v>221.5760648830646</v>
+        <v>163.9824415504889</v>
       </c>
       <c r="R16" t="n">
-        <v>249.4848999638325</v>
+        <v>218.5590438132605</v>
       </c>
       <c r="S16" t="n">
-        <v>254.7116329346421</v>
+        <v>242.7252062786279</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7883730085969</v>
+        <v>217.8496038232412</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2165540145173</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23746,49 +23746,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>423.590221574262</v>
+        <v>422.0568960504156</v>
       </c>
       <c r="H17" t="n">
-        <v>364.0964285766221</v>
+        <v>348.3932585555301</v>
       </c>
       <c r="I17" t="n">
-        <v>307.6301510626203</v>
+        <v>248.5166188045319</v>
       </c>
       <c r="J17" t="n">
-        <v>264.7796353702787</v>
+        <v>134.6405481907202</v>
       </c>
       <c r="K17" t="n">
-        <v>321.881407153284</v>
+        <v>126.8366505493073</v>
       </c>
       <c r="L17" t="n">
-        <v>344.8083818936063</v>
+        <v>102.8381142892153</v>
       </c>
       <c r="M17" t="n">
-        <v>336.8813660948863</v>
+        <v>67.64282070579191</v>
       </c>
       <c r="N17" t="n">
-        <v>335.5166055100142</v>
+        <v>61.92149897629116</v>
       </c>
       <c r="O17" t="n">
-        <v>336.5186342042169</v>
+        <v>78.17053334824146</v>
       </c>
       <c r="P17" t="n">
-        <v>338.1782562920817</v>
+        <v>117.6841293060643</v>
       </c>
       <c r="Q17" t="n">
-        <v>325.1220714413824</v>
+        <v>159.5401647781143</v>
       </c>
       <c r="R17" t="n">
-        <v>315.2938490531682</v>
+        <v>218.9760896158517</v>
       </c>
       <c r="S17" t="n">
-        <v>267.3897500463082</v>
+        <v>232.4490946716583</v>
       </c>
       <c r="T17" t="n">
-        <v>225.5143983667847</v>
+        <v>218.802265886147</v>
       </c>
       <c r="U17" t="n">
-        <v>248.90160553674</v>
+        <v>248.7789394948323</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23825,49 +23825,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>161.7691958893245</v>
+        <v>160.948794407391</v>
       </c>
       <c r="H18" t="n">
-        <v>145.0346254522244</v>
+        <v>137.1112742977616</v>
       </c>
       <c r="I18" t="n">
-        <v>145.55148075</v>
+        <v>117.3052016571149</v>
       </c>
       <c r="J18" t="n">
-        <v>185.500029</v>
+        <v>107.9900802178551</v>
       </c>
       <c r="K18" t="n">
-        <v>201.5931045</v>
+        <v>69.11625642831203</v>
       </c>
       <c r="L18" t="n">
-        <v>202.635780428066</v>
+        <v>24.50430953720269</v>
       </c>
       <c r="M18" t="n">
-        <v>207.8710246109518</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>192.087253921875</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>208.5470075</v>
+        <v>13.35262508576585</v>
       </c>
       <c r="P18" t="n">
-        <v>195.937570843458</v>
+        <v>39.2768703153011</v>
       </c>
       <c r="Q18" t="n">
-        <v>204.7233446008065</v>
+        <v>99.99981508242075</v>
       </c>
       <c r="R18" t="n">
-        <v>213.0562745472973</v>
+        <v>162.1194176251468</v>
       </c>
       <c r="S18" t="n">
-        <v>222.0319792704162</v>
+        <v>206.7933815687133</v>
       </c>
       <c r="T18" t="n">
-        <v>233.1353692460508</v>
+        <v>229.8285755535207</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6991748357862</v>
+        <v>249.64520105408</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23904,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.8667022829468</v>
+        <v>169.1789052395657</v>
       </c>
       <c r="H19" t="n">
-        <v>173.1995317301106</v>
+        <v>167.0843907444132</v>
       </c>
       <c r="I19" t="n">
-        <v>186.7511453295697</v>
+        <v>166.0672124249817</v>
       </c>
       <c r="J19" t="n">
-        <v>185.7308038551168</v>
+        <v>137.103552888073</v>
       </c>
       <c r="K19" t="n">
-        <v>188.681890074408</v>
+        <v>108.7723790343128</v>
       </c>
       <c r="L19" t="n">
-        <v>197.268839061311</v>
+        <v>95.01217681172437</v>
       </c>
       <c r="M19" t="n">
-        <v>203.1789590233724</v>
+        <v>95.36364612318764</v>
       </c>
       <c r="N19" t="n">
-        <v>186.7401087804035</v>
+        <v>81.48840304191189</v>
       </c>
       <c r="O19" t="n">
-        <v>202.4926874858201</v>
+        <v>105.2757017540986</v>
       </c>
       <c r="P19" t="n">
-        <v>201.4272059218784</v>
+        <v>118.2412798751314</v>
       </c>
       <c r="Q19" t="n">
-        <v>221.5760648830646</v>
+        <v>163.9824415504889</v>
       </c>
       <c r="R19" t="n">
-        <v>249.4848999638325</v>
+        <v>218.5590438132605</v>
       </c>
       <c r="S19" t="n">
-        <v>254.7116329346421</v>
+        <v>242.7252062786279</v>
       </c>
       <c r="T19" t="n">
-        <v>220.7883730085969</v>
+        <v>217.8496038232412</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2165540145173</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23983,49 +23983,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>423.590221574262</v>
+        <v>422.0568960504156</v>
       </c>
       <c r="H20" t="n">
-        <v>364.0964285766221</v>
+        <v>348.3932585555301</v>
       </c>
       <c r="I20" t="n">
-        <v>307.6301510626203</v>
+        <v>248.5166188045319</v>
       </c>
       <c r="J20" t="n">
-        <v>264.7796353702787</v>
+        <v>134.6405481907202</v>
       </c>
       <c r="K20" t="n">
-        <v>321.881407153284</v>
+        <v>126.8366505493073</v>
       </c>
       <c r="L20" t="n">
-        <v>344.8083818936063</v>
+        <v>102.8381142892153</v>
       </c>
       <c r="M20" t="n">
-        <v>336.8813660948863</v>
+        <v>67.64282070579191</v>
       </c>
       <c r="N20" t="n">
-        <v>335.5166055100142</v>
+        <v>61.92149897629116</v>
       </c>
       <c r="O20" t="n">
-        <v>336.5186342042169</v>
+        <v>78.17053334824146</v>
       </c>
       <c r="P20" t="n">
-        <v>338.1782562920817</v>
+        <v>117.6841293060643</v>
       </c>
       <c r="Q20" t="n">
-        <v>325.1220714413824</v>
+        <v>159.5401647781143</v>
       </c>
       <c r="R20" t="n">
-        <v>315.2938490531682</v>
+        <v>218.9760896158517</v>
       </c>
       <c r="S20" t="n">
-        <v>267.3897500463082</v>
+        <v>232.4490946716583</v>
       </c>
       <c r="T20" t="n">
-        <v>225.5143983667847</v>
+        <v>218.802265886147</v>
       </c>
       <c r="U20" t="n">
-        <v>248.90160553674</v>
+        <v>248.7789394948323</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24062,49 +24062,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>161.7691958893245</v>
+        <v>160.948794407391</v>
       </c>
       <c r="H21" t="n">
-        <v>145.0346254522244</v>
+        <v>137.1112742977616</v>
       </c>
       <c r="I21" t="n">
-        <v>145.55148075</v>
+        <v>117.3052016571149</v>
       </c>
       <c r="J21" t="n">
-        <v>185.500029</v>
+        <v>107.9900802178551</v>
       </c>
       <c r="K21" t="n">
-        <v>201.5931045</v>
+        <v>69.11625642831203</v>
       </c>
       <c r="L21" t="n">
-        <v>202.635780428066</v>
+        <v>24.50430953720269</v>
       </c>
       <c r="M21" t="n">
-        <v>207.8710246109518</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>192.087253921875</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>208.5470075</v>
+        <v>13.35262508576585</v>
       </c>
       <c r="P21" t="n">
-        <v>195.937570843458</v>
+        <v>39.2768703153011</v>
       </c>
       <c r="Q21" t="n">
-        <v>204.7233446008065</v>
+        <v>99.99981508242075</v>
       </c>
       <c r="R21" t="n">
-        <v>213.0562745472973</v>
+        <v>162.1194176251468</v>
       </c>
       <c r="S21" t="n">
-        <v>222.0319792704162</v>
+        <v>206.7933815687133</v>
       </c>
       <c r="T21" t="n">
-        <v>233.1353692460508</v>
+        <v>229.8285755535207</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6991748357862</v>
+        <v>249.64520105408</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24141,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.8667022829468</v>
+        <v>169.1789052395657</v>
       </c>
       <c r="H22" t="n">
-        <v>173.1995317301106</v>
+        <v>167.0843907444132</v>
       </c>
       <c r="I22" t="n">
-        <v>186.7511453295697</v>
+        <v>166.0672124249817</v>
       </c>
       <c r="J22" t="n">
-        <v>185.7308038551168</v>
+        <v>137.103552888073</v>
       </c>
       <c r="K22" t="n">
-        <v>188.681890074408</v>
+        <v>108.7723790343128</v>
       </c>
       <c r="L22" t="n">
-        <v>197.268839061311</v>
+        <v>95.01217681172437</v>
       </c>
       <c r="M22" t="n">
-        <v>203.1789590233724</v>
+        <v>95.36364612318764</v>
       </c>
       <c r="N22" t="n">
-        <v>186.7401087804035</v>
+        <v>81.48840304191189</v>
       </c>
       <c r="O22" t="n">
-        <v>202.4926874858201</v>
+        <v>105.2757017540986</v>
       </c>
       <c r="P22" t="n">
-        <v>201.4272059218784</v>
+        <v>118.2412798751314</v>
       </c>
       <c r="Q22" t="n">
-        <v>221.5760648830646</v>
+        <v>163.9824415504889</v>
       </c>
       <c r="R22" t="n">
-        <v>249.4848999638325</v>
+        <v>218.5590438132605</v>
       </c>
       <c r="S22" t="n">
-        <v>254.7116329346421</v>
+        <v>242.7252062786279</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7883730085969</v>
+        <v>217.8496038232412</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2165540145173</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24220,49 +24220,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>423.590221574262</v>
+        <v>422.0568960504157</v>
       </c>
       <c r="H23" t="n">
-        <v>364.0964285766221</v>
+        <v>348.3932585555301</v>
       </c>
       <c r="I23" t="n">
-        <v>307.6301510626203</v>
+        <v>248.5166188045319</v>
       </c>
       <c r="J23" t="n">
-        <v>264.7796353702787</v>
+        <v>134.6405481907202</v>
       </c>
       <c r="K23" t="n">
-        <v>321.881407153284</v>
+        <v>126.8366505493073</v>
       </c>
       <c r="L23" t="n">
-        <v>344.8083818936063</v>
+        <v>102.8381142892153</v>
       </c>
       <c r="M23" t="n">
-        <v>336.8813660948863</v>
+        <v>67.64282070579191</v>
       </c>
       <c r="N23" t="n">
-        <v>335.5166055100142</v>
+        <v>61.92149897629116</v>
       </c>
       <c r="O23" t="n">
-        <v>336.5186342042169</v>
+        <v>78.17053334824146</v>
       </c>
       <c r="P23" t="n">
-        <v>338.1782562920817</v>
+        <v>117.6841293060644</v>
       </c>
       <c r="Q23" t="n">
-        <v>325.1220714413824</v>
+        <v>159.5401647781143</v>
       </c>
       <c r="R23" t="n">
-        <v>315.2938490531682</v>
+        <v>218.9760896158517</v>
       </c>
       <c r="S23" t="n">
-        <v>267.3897500463082</v>
+        <v>232.4490946716583</v>
       </c>
       <c r="T23" t="n">
-        <v>225.5143983667847</v>
+        <v>218.802265886147</v>
       </c>
       <c r="U23" t="n">
-        <v>248.90160553674</v>
+        <v>248.7789394948323</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24299,49 +24299,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>161.7691958893245</v>
+        <v>160.948794407391</v>
       </c>
       <c r="H24" t="n">
-        <v>145.0346254522244</v>
+        <v>137.1112742977616</v>
       </c>
       <c r="I24" t="n">
-        <v>145.55148075</v>
+        <v>117.3052016571149</v>
       </c>
       <c r="J24" t="n">
-        <v>185.500029</v>
+        <v>107.9900802178551</v>
       </c>
       <c r="K24" t="n">
-        <v>201.5931045</v>
+        <v>69.11625642831203</v>
       </c>
       <c r="L24" t="n">
-        <v>202.635780428066</v>
+        <v>24.50430953720272</v>
       </c>
       <c r="M24" t="n">
-        <v>207.8710246109518</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>192.087253921875</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>208.5470075</v>
+        <v>13.35262508576585</v>
       </c>
       <c r="P24" t="n">
-        <v>195.937570843458</v>
+        <v>39.27687031530112</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.7233446008065</v>
+        <v>99.99981508242075</v>
       </c>
       <c r="R24" t="n">
-        <v>213.0562745472973</v>
+        <v>162.1194176251468</v>
       </c>
       <c r="S24" t="n">
-        <v>222.0319792704162</v>
+        <v>206.7933815687133</v>
       </c>
       <c r="T24" t="n">
-        <v>233.1353692460508</v>
+        <v>229.8285755535207</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6991748357862</v>
+        <v>249.64520105408</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24378,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.8667022829468</v>
+        <v>169.1789052395657</v>
       </c>
       <c r="H25" t="n">
-        <v>173.1995317301106</v>
+        <v>167.0843907444132</v>
       </c>
       <c r="I25" t="n">
-        <v>186.7511453295697</v>
+        <v>166.0672124249817</v>
       </c>
       <c r="J25" t="n">
-        <v>185.7308038551168</v>
+        <v>137.103552888073</v>
       </c>
       <c r="K25" t="n">
-        <v>188.681890074408</v>
+        <v>108.7723790343128</v>
       </c>
       <c r="L25" t="n">
-        <v>197.268839061311</v>
+        <v>95.01217681172437</v>
       </c>
       <c r="M25" t="n">
-        <v>203.1789590233724</v>
+        <v>95.36364612318765</v>
       </c>
       <c r="N25" t="n">
-        <v>186.7401087804035</v>
+        <v>81.48840304191191</v>
       </c>
       <c r="O25" t="n">
-        <v>202.4926874858201</v>
+        <v>105.2757017540986</v>
       </c>
       <c r="P25" t="n">
-        <v>201.4272059218784</v>
+        <v>118.2412798751314</v>
       </c>
       <c r="Q25" t="n">
-        <v>221.5760648830646</v>
+        <v>163.9824415504889</v>
       </c>
       <c r="R25" t="n">
-        <v>249.4848999638325</v>
+        <v>218.5590438132605</v>
       </c>
       <c r="S25" t="n">
-        <v>254.7116329346421</v>
+        <v>242.7252062786279</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7883730085969</v>
+        <v>217.8496038232412</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2165540145173</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24457,49 +24457,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>423.590221574262</v>
+        <v>422.0568960504156</v>
       </c>
       <c r="H26" t="n">
-        <v>364.0964285766221</v>
+        <v>348.3932585555301</v>
       </c>
       <c r="I26" t="n">
-        <v>307.6301510626203</v>
+        <v>248.5166188045319</v>
       </c>
       <c r="J26" t="n">
-        <v>264.7796353702787</v>
+        <v>134.6405481907202</v>
       </c>
       <c r="K26" t="n">
-        <v>321.881407153284</v>
+        <v>126.8366505493073</v>
       </c>
       <c r="L26" t="n">
-        <v>344.8083818936063</v>
+        <v>102.8381142892153</v>
       </c>
       <c r="M26" t="n">
-        <v>336.8813660948863</v>
+        <v>67.64282070579191</v>
       </c>
       <c r="N26" t="n">
-        <v>335.5166055100142</v>
+        <v>61.92149897629116</v>
       </c>
       <c r="O26" t="n">
-        <v>336.5186342042169</v>
+        <v>78.17053334824146</v>
       </c>
       <c r="P26" t="n">
-        <v>338.1782562920817</v>
+        <v>117.6841293060643</v>
       </c>
       <c r="Q26" t="n">
-        <v>325.1220714413824</v>
+        <v>159.5401647781143</v>
       </c>
       <c r="R26" t="n">
-        <v>315.2938490531682</v>
+        <v>218.9760896158517</v>
       </c>
       <c r="S26" t="n">
-        <v>267.3897500463082</v>
+        <v>232.4490946716583</v>
       </c>
       <c r="T26" t="n">
-        <v>225.5143983667847</v>
+        <v>218.802265886147</v>
       </c>
       <c r="U26" t="n">
-        <v>248.90160553674</v>
+        <v>248.7789394948323</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24536,49 +24536,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>161.7691958893245</v>
+        <v>160.948794407391</v>
       </c>
       <c r="H27" t="n">
-        <v>145.0346254522244</v>
+        <v>137.1112742977616</v>
       </c>
       <c r="I27" t="n">
-        <v>145.55148075</v>
+        <v>117.3052016571149</v>
       </c>
       <c r="J27" t="n">
-        <v>185.500029</v>
+        <v>107.9900802178551</v>
       </c>
       <c r="K27" t="n">
-        <v>201.5931045</v>
+        <v>69.11625642831203</v>
       </c>
       <c r="L27" t="n">
-        <v>202.635780428066</v>
+        <v>24.50430953720269</v>
       </c>
       <c r="M27" t="n">
-        <v>207.8710246109518</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>192.087253921875</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>208.5470075</v>
+        <v>13.35262508576585</v>
       </c>
       <c r="P27" t="n">
-        <v>195.937570843458</v>
+        <v>39.2768703153011</v>
       </c>
       <c r="Q27" t="n">
-        <v>204.7233446008065</v>
+        <v>99.99981508242075</v>
       </c>
       <c r="R27" t="n">
-        <v>213.0562745472973</v>
+        <v>162.1194176251468</v>
       </c>
       <c r="S27" t="n">
-        <v>222.0319792704162</v>
+        <v>206.7933815687133</v>
       </c>
       <c r="T27" t="n">
-        <v>233.1353692460508</v>
+        <v>229.8285755535207</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6991748357862</v>
+        <v>249.64520105408</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24615,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.8667022829468</v>
+        <v>169.1789052395657</v>
       </c>
       <c r="H28" t="n">
-        <v>173.1995317301106</v>
+        <v>167.0843907444132</v>
       </c>
       <c r="I28" t="n">
-        <v>186.7511453295697</v>
+        <v>166.0672124249817</v>
       </c>
       <c r="J28" t="n">
-        <v>185.7308038551168</v>
+        <v>137.103552888073</v>
       </c>
       <c r="K28" t="n">
-        <v>188.681890074408</v>
+        <v>108.7723790343128</v>
       </c>
       <c r="L28" t="n">
-        <v>197.268839061311</v>
+        <v>95.01217681172437</v>
       </c>
       <c r="M28" t="n">
-        <v>203.1789590233724</v>
+        <v>95.36364612318764</v>
       </c>
       <c r="N28" t="n">
-        <v>186.7401087804035</v>
+        <v>81.48840304191189</v>
       </c>
       <c r="O28" t="n">
-        <v>202.4926874858201</v>
+        <v>105.2757017540986</v>
       </c>
       <c r="P28" t="n">
-        <v>201.4272059218784</v>
+        <v>118.2412798751314</v>
       </c>
       <c r="Q28" t="n">
-        <v>221.5760648830646</v>
+        <v>163.9824415504889</v>
       </c>
       <c r="R28" t="n">
-        <v>249.4848999638325</v>
+        <v>218.5590438132605</v>
       </c>
       <c r="S28" t="n">
-        <v>254.7116329346421</v>
+        <v>242.7252062786279</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7883730085969</v>
+        <v>217.8496038232412</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2165540145173</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24694,49 +24694,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>423.590221574262</v>
+        <v>422.0568960504156</v>
       </c>
       <c r="H29" t="n">
-        <v>364.0964285766221</v>
+        <v>348.3932585555301</v>
       </c>
       <c r="I29" t="n">
-        <v>307.6301510626203</v>
+        <v>248.5166188045319</v>
       </c>
       <c r="J29" t="n">
-        <v>264.7796353702787</v>
+        <v>134.6405481907202</v>
       </c>
       <c r="K29" t="n">
-        <v>321.881407153284</v>
+        <v>126.8366505493073</v>
       </c>
       <c r="L29" t="n">
-        <v>344.8083818936063</v>
+        <v>102.8381142892153</v>
       </c>
       <c r="M29" t="n">
-        <v>336.8813660948863</v>
+        <v>67.64282070579191</v>
       </c>
       <c r="N29" t="n">
-        <v>335.5166055100142</v>
+        <v>61.92149897629116</v>
       </c>
       <c r="O29" t="n">
-        <v>336.5186342042169</v>
+        <v>78.17053334824146</v>
       </c>
       <c r="P29" t="n">
-        <v>338.1782562920817</v>
+        <v>117.6841293060643</v>
       </c>
       <c r="Q29" t="n">
-        <v>325.1220714413824</v>
+        <v>159.5401647781143</v>
       </c>
       <c r="R29" t="n">
-        <v>315.2938490531682</v>
+        <v>218.9760896158517</v>
       </c>
       <c r="S29" t="n">
-        <v>267.3897500463082</v>
+        <v>232.4490946716583</v>
       </c>
       <c r="T29" t="n">
-        <v>225.5143983667847</v>
+        <v>218.802265886147</v>
       </c>
       <c r="U29" t="n">
-        <v>248.90160553674</v>
+        <v>248.7789394948323</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24773,49 +24773,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>161.7691958893245</v>
+        <v>160.948794407391</v>
       </c>
       <c r="H30" t="n">
-        <v>145.0346254522244</v>
+        <v>137.1112742977616</v>
       </c>
       <c r="I30" t="n">
-        <v>145.55148075</v>
+        <v>117.3052016571149</v>
       </c>
       <c r="J30" t="n">
-        <v>185.500029</v>
+        <v>107.9900802178551</v>
       </c>
       <c r="K30" t="n">
-        <v>201.5931045</v>
+        <v>69.11625642831203</v>
       </c>
       <c r="L30" t="n">
-        <v>202.635780428066</v>
+        <v>24.50430953720269</v>
       </c>
       <c r="M30" t="n">
-        <v>207.8710246109518</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>192.087253921875</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>208.5470075</v>
+        <v>13.35262508576585</v>
       </c>
       <c r="P30" t="n">
-        <v>195.937570843458</v>
+        <v>39.2768703153011</v>
       </c>
       <c r="Q30" t="n">
-        <v>204.7233446008065</v>
+        <v>99.99981508242075</v>
       </c>
       <c r="R30" t="n">
-        <v>213.0562745472973</v>
+        <v>162.1194176251468</v>
       </c>
       <c r="S30" t="n">
-        <v>222.0319792704162</v>
+        <v>206.7933815687133</v>
       </c>
       <c r="T30" t="n">
-        <v>233.1353692460508</v>
+        <v>229.8285755535207</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6991748357862</v>
+        <v>249.64520105408</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24852,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.8667022829468</v>
+        <v>169.1789052395657</v>
       </c>
       <c r="H31" t="n">
-        <v>173.1995317301106</v>
+        <v>167.0843907444132</v>
       </c>
       <c r="I31" t="n">
-        <v>186.7511453295697</v>
+        <v>166.0672124249817</v>
       </c>
       <c r="J31" t="n">
-        <v>185.7308038551168</v>
+        <v>137.103552888073</v>
       </c>
       <c r="K31" t="n">
-        <v>188.681890074408</v>
+        <v>108.7723790343128</v>
       </c>
       <c r="L31" t="n">
-        <v>197.268839061311</v>
+        <v>95.01217681172437</v>
       </c>
       <c r="M31" t="n">
-        <v>203.1789590233724</v>
+        <v>95.36364612318764</v>
       </c>
       <c r="N31" t="n">
-        <v>186.7401087804035</v>
+        <v>81.48840304191189</v>
       </c>
       <c r="O31" t="n">
-        <v>202.4926874858201</v>
+        <v>105.2757017540986</v>
       </c>
       <c r="P31" t="n">
-        <v>201.4272059218784</v>
+        <v>118.2412798751314</v>
       </c>
       <c r="Q31" t="n">
-        <v>221.5760648830646</v>
+        <v>163.9824415504889</v>
       </c>
       <c r="R31" t="n">
-        <v>249.4848999638325</v>
+        <v>218.5590438132605</v>
       </c>
       <c r="S31" t="n">
-        <v>254.7116329346421</v>
+        <v>242.7252062786279</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7883730085969</v>
+        <v>217.8496038232412</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2165540145173</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24931,49 +24931,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>423.590221574262</v>
+        <v>422.0568960504156</v>
       </c>
       <c r="H32" t="n">
-        <v>364.0964285766221</v>
+        <v>348.3932585555301</v>
       </c>
       <c r="I32" t="n">
-        <v>307.6301510626203</v>
+        <v>248.5166188045319</v>
       </c>
       <c r="J32" t="n">
-        <v>264.7796353702787</v>
+        <v>134.6405481907202</v>
       </c>
       <c r="K32" t="n">
-        <v>321.881407153284</v>
+        <v>126.8366505493073</v>
       </c>
       <c r="L32" t="n">
-        <v>344.8083818936063</v>
+        <v>102.8381142892153</v>
       </c>
       <c r="M32" t="n">
-        <v>336.8813660948863</v>
+        <v>67.64282070579191</v>
       </c>
       <c r="N32" t="n">
-        <v>335.5166055100142</v>
+        <v>61.92149897629116</v>
       </c>
       <c r="O32" t="n">
-        <v>336.5186342042169</v>
+        <v>78.17053334824146</v>
       </c>
       <c r="P32" t="n">
-        <v>338.1782562920817</v>
+        <v>117.6841293060643</v>
       </c>
       <c r="Q32" t="n">
-        <v>325.1220714413824</v>
+        <v>159.5401647781143</v>
       </c>
       <c r="R32" t="n">
-        <v>315.2938490531682</v>
+        <v>218.9760896158517</v>
       </c>
       <c r="S32" t="n">
-        <v>267.3897500463082</v>
+        <v>232.4490946716583</v>
       </c>
       <c r="T32" t="n">
-        <v>225.5143983667847</v>
+        <v>218.802265886147</v>
       </c>
       <c r="U32" t="n">
-        <v>248.90160553674</v>
+        <v>248.7789394948323</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25010,49 +25010,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>161.7691958893245</v>
+        <v>160.948794407391</v>
       </c>
       <c r="H33" t="n">
-        <v>145.0346254522244</v>
+        <v>137.1112742977616</v>
       </c>
       <c r="I33" t="n">
-        <v>145.55148075</v>
+        <v>117.3052016571149</v>
       </c>
       <c r="J33" t="n">
-        <v>185.500029</v>
+        <v>107.9900802178551</v>
       </c>
       <c r="K33" t="n">
-        <v>201.5931045</v>
+        <v>69.11625642831203</v>
       </c>
       <c r="L33" t="n">
-        <v>202.635780428066</v>
+        <v>24.50430953720269</v>
       </c>
       <c r="M33" t="n">
-        <v>207.8710246109518</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>192.087253921875</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>208.5470075</v>
+        <v>13.35262508576585</v>
       </c>
       <c r="P33" t="n">
-        <v>195.937570843458</v>
+        <v>39.2768703153011</v>
       </c>
       <c r="Q33" t="n">
-        <v>204.7233446008065</v>
+        <v>99.99981508242075</v>
       </c>
       <c r="R33" t="n">
-        <v>213.0562745472973</v>
+        <v>162.1194176251468</v>
       </c>
       <c r="S33" t="n">
-        <v>222.0319792704162</v>
+        <v>206.7933815687133</v>
       </c>
       <c r="T33" t="n">
-        <v>233.1353692460508</v>
+        <v>229.8285755535207</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6991748357862</v>
+        <v>249.64520105408</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25089,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.8667022829468</v>
+        <v>169.1789052395657</v>
       </c>
       <c r="H34" t="n">
-        <v>173.1995317301106</v>
+        <v>167.0843907444132</v>
       </c>
       <c r="I34" t="n">
-        <v>186.7511453295697</v>
+        <v>166.0672124249817</v>
       </c>
       <c r="J34" t="n">
-        <v>185.7308038551168</v>
+        <v>137.103552888073</v>
       </c>
       <c r="K34" t="n">
-        <v>188.681890074408</v>
+        <v>108.7723790343128</v>
       </c>
       <c r="L34" t="n">
-        <v>197.268839061311</v>
+        <v>95.01217681172437</v>
       </c>
       <c r="M34" t="n">
-        <v>203.1789590233724</v>
+        <v>95.36364612318764</v>
       </c>
       <c r="N34" t="n">
-        <v>186.7401087804035</v>
+        <v>81.48840304191189</v>
       </c>
       <c r="O34" t="n">
-        <v>202.4926874858201</v>
+        <v>105.2757017540986</v>
       </c>
       <c r="P34" t="n">
-        <v>201.4272059218784</v>
+        <v>118.2412798751314</v>
       </c>
       <c r="Q34" t="n">
-        <v>221.5760648830646</v>
+        <v>163.9824415504889</v>
       </c>
       <c r="R34" t="n">
-        <v>249.4848999638325</v>
+        <v>218.5590438132605</v>
       </c>
       <c r="S34" t="n">
-        <v>254.7116329346421</v>
+        <v>242.7252062786279</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7883730085969</v>
+        <v>217.8496038232412</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2165540145173</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25168,49 +25168,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>423.590221574262</v>
+        <v>422.0568960504156</v>
       </c>
       <c r="H35" t="n">
-        <v>364.0964285766221</v>
+        <v>348.3932585555301</v>
       </c>
       <c r="I35" t="n">
-        <v>307.6301510626203</v>
+        <v>248.5166188045319</v>
       </c>
       <c r="J35" t="n">
-        <v>264.7796353702787</v>
+        <v>134.6405481907202</v>
       </c>
       <c r="K35" t="n">
-        <v>321.881407153284</v>
+        <v>126.8366505493073</v>
       </c>
       <c r="L35" t="n">
-        <v>344.8083818936063</v>
+        <v>102.8381142892153</v>
       </c>
       <c r="M35" t="n">
-        <v>336.8813660948863</v>
+        <v>67.64282070579191</v>
       </c>
       <c r="N35" t="n">
-        <v>335.5166055100142</v>
+        <v>61.92149897629116</v>
       </c>
       <c r="O35" t="n">
-        <v>336.5186342042169</v>
+        <v>78.17053334824146</v>
       </c>
       <c r="P35" t="n">
-        <v>338.1782562920817</v>
+        <v>117.6841293060643</v>
       </c>
       <c r="Q35" t="n">
-        <v>325.1220714413824</v>
+        <v>159.5401647781143</v>
       </c>
       <c r="R35" t="n">
-        <v>315.2938490531682</v>
+        <v>218.9760896158517</v>
       </c>
       <c r="S35" t="n">
-        <v>267.3897500463082</v>
+        <v>232.4490946716583</v>
       </c>
       <c r="T35" t="n">
-        <v>225.5143983667847</v>
+        <v>218.802265886147</v>
       </c>
       <c r="U35" t="n">
-        <v>248.90160553674</v>
+        <v>248.7789394948323</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25247,49 +25247,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>161.7691958893245</v>
+        <v>160.948794407391</v>
       </c>
       <c r="H36" t="n">
-        <v>145.0346254522244</v>
+        <v>137.1112742977616</v>
       </c>
       <c r="I36" t="n">
-        <v>145.55148075</v>
+        <v>117.3052016571149</v>
       </c>
       <c r="J36" t="n">
-        <v>185.500029</v>
+        <v>107.9900802178551</v>
       </c>
       <c r="K36" t="n">
-        <v>201.5931045</v>
+        <v>69.11625642831203</v>
       </c>
       <c r="L36" t="n">
-        <v>202.635780428066</v>
+        <v>24.50430953720269</v>
       </c>
       <c r="M36" t="n">
-        <v>207.8710246109518</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>192.087253921875</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>208.5470075</v>
+        <v>13.35262508576585</v>
       </c>
       <c r="P36" t="n">
-        <v>195.937570843458</v>
+        <v>39.2768703153011</v>
       </c>
       <c r="Q36" t="n">
-        <v>204.7233446008065</v>
+        <v>99.99981508242075</v>
       </c>
       <c r="R36" t="n">
-        <v>213.0562745472973</v>
+        <v>162.1194176251468</v>
       </c>
       <c r="S36" t="n">
-        <v>222.0319792704162</v>
+        <v>206.7933815687133</v>
       </c>
       <c r="T36" t="n">
-        <v>233.1353692460508</v>
+        <v>229.8285755535207</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6991748357862</v>
+        <v>249.64520105408</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25326,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.8667022829468</v>
+        <v>169.1789052395657</v>
       </c>
       <c r="H37" t="n">
-        <v>173.1995317301106</v>
+        <v>167.0843907444132</v>
       </c>
       <c r="I37" t="n">
-        <v>186.7511453295697</v>
+        <v>166.0672124249817</v>
       </c>
       <c r="J37" t="n">
-        <v>185.7308038551168</v>
+        <v>137.103552888073</v>
       </c>
       <c r="K37" t="n">
-        <v>188.681890074408</v>
+        <v>108.7723790343128</v>
       </c>
       <c r="L37" t="n">
-        <v>197.268839061311</v>
+        <v>95.01217681172437</v>
       </c>
       <c r="M37" t="n">
-        <v>203.1789590233724</v>
+        <v>95.36364612318764</v>
       </c>
       <c r="N37" t="n">
-        <v>186.7401087804035</v>
+        <v>81.48840304191189</v>
       </c>
       <c r="O37" t="n">
-        <v>202.4926874858201</v>
+        <v>105.2757017540986</v>
       </c>
       <c r="P37" t="n">
-        <v>201.4272059218784</v>
+        <v>118.2412798751314</v>
       </c>
       <c r="Q37" t="n">
-        <v>221.5760648830646</v>
+        <v>163.9824415504889</v>
       </c>
       <c r="R37" t="n">
-        <v>249.4848999638325</v>
+        <v>218.5590438132605</v>
       </c>
       <c r="S37" t="n">
-        <v>254.7116329346421</v>
+        <v>242.7252062786279</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7883730085969</v>
+        <v>217.8496038232412</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2165540145173</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25405,49 +25405,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>423.590221574262</v>
+        <v>422.0568960504156</v>
       </c>
       <c r="H38" t="n">
-        <v>364.0964285766221</v>
+        <v>348.3932585555301</v>
       </c>
       <c r="I38" t="n">
-        <v>307.6301510626203</v>
+        <v>248.5166188045319</v>
       </c>
       <c r="J38" t="n">
-        <v>264.7796353702787</v>
+        <v>134.6405481907202</v>
       </c>
       <c r="K38" t="n">
-        <v>321.881407153284</v>
+        <v>126.8366505493073</v>
       </c>
       <c r="L38" t="n">
-        <v>344.8083818936063</v>
+        <v>102.8381142892153</v>
       </c>
       <c r="M38" t="n">
-        <v>336.8813660948863</v>
+        <v>67.64282070579191</v>
       </c>
       <c r="N38" t="n">
-        <v>335.5166055100142</v>
+        <v>61.92149897629116</v>
       </c>
       <c r="O38" t="n">
-        <v>336.5186342042169</v>
+        <v>78.17053334824146</v>
       </c>
       <c r="P38" t="n">
-        <v>338.1782562920817</v>
+        <v>117.6841293060643</v>
       </c>
       <c r="Q38" t="n">
-        <v>325.1220714413824</v>
+        <v>159.5401647781143</v>
       </c>
       <c r="R38" t="n">
-        <v>315.2938490531682</v>
+        <v>218.9760896158517</v>
       </c>
       <c r="S38" t="n">
-        <v>267.3897500463082</v>
+        <v>232.4490946716583</v>
       </c>
       <c r="T38" t="n">
-        <v>225.5143983667847</v>
+        <v>218.802265886147</v>
       </c>
       <c r="U38" t="n">
-        <v>248.90160553674</v>
+        <v>248.7789394948323</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25484,49 +25484,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>161.7691958893245</v>
+        <v>160.948794407391</v>
       </c>
       <c r="H39" t="n">
-        <v>145.0346254522244</v>
+        <v>137.1112742977616</v>
       </c>
       <c r="I39" t="n">
-        <v>145.55148075</v>
+        <v>117.3052016571149</v>
       </c>
       <c r="J39" t="n">
-        <v>185.500029</v>
+        <v>107.9900802178551</v>
       </c>
       <c r="K39" t="n">
-        <v>201.5931045</v>
+        <v>69.11625642831203</v>
       </c>
       <c r="L39" t="n">
-        <v>202.635780428066</v>
+        <v>24.50430953720269</v>
       </c>
       <c r="M39" t="n">
-        <v>207.8710246109518</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>192.087253921875</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>208.5470075</v>
+        <v>13.35262508576585</v>
       </c>
       <c r="P39" t="n">
-        <v>195.937570843458</v>
+        <v>39.2768703153011</v>
       </c>
       <c r="Q39" t="n">
-        <v>204.7233446008065</v>
+        <v>99.99981508242075</v>
       </c>
       <c r="R39" t="n">
-        <v>213.0562745472973</v>
+        <v>162.1194176251468</v>
       </c>
       <c r="S39" t="n">
-        <v>222.0319792704162</v>
+        <v>206.7933815687133</v>
       </c>
       <c r="T39" t="n">
-        <v>233.1353692460508</v>
+        <v>229.8285755535207</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6991748357862</v>
+        <v>249.64520105408</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25563,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.8667022829468</v>
+        <v>169.1789052395657</v>
       </c>
       <c r="H40" t="n">
-        <v>173.1995317301106</v>
+        <v>167.0843907444132</v>
       </c>
       <c r="I40" t="n">
-        <v>186.7511453295697</v>
+        <v>166.0672124249817</v>
       </c>
       <c r="J40" t="n">
-        <v>185.7308038551168</v>
+        <v>137.103552888073</v>
       </c>
       <c r="K40" t="n">
-        <v>188.681890074408</v>
+        <v>108.7723790343128</v>
       </c>
       <c r="L40" t="n">
-        <v>197.268839061311</v>
+        <v>95.01217681172437</v>
       </c>
       <c r="M40" t="n">
-        <v>203.1789590233724</v>
+        <v>95.36364612318764</v>
       </c>
       <c r="N40" t="n">
-        <v>186.7401087804035</v>
+        <v>81.48840304191189</v>
       </c>
       <c r="O40" t="n">
-        <v>202.4926874858201</v>
+        <v>105.2757017540986</v>
       </c>
       <c r="P40" t="n">
-        <v>201.4272059218784</v>
+        <v>118.2412798751314</v>
       </c>
       <c r="Q40" t="n">
-        <v>221.5760648830646</v>
+        <v>163.9824415504889</v>
       </c>
       <c r="R40" t="n">
-        <v>249.4848999638325</v>
+        <v>218.5590438132605</v>
       </c>
       <c r="S40" t="n">
-        <v>254.7116329346421</v>
+        <v>242.7252062786279</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7883730085969</v>
+        <v>217.8496038232412</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2165540145173</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25642,49 +25642,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>423.590221574262</v>
+        <v>422.0568960504156</v>
       </c>
       <c r="H41" t="n">
-        <v>364.0964285766221</v>
+        <v>348.3932585555301</v>
       </c>
       <c r="I41" t="n">
-        <v>307.6301510626203</v>
+        <v>248.5166188045319</v>
       </c>
       <c r="J41" t="n">
-        <v>264.7796353702787</v>
+        <v>134.6405481907202</v>
       </c>
       <c r="K41" t="n">
-        <v>321.881407153284</v>
+        <v>126.8366505493073</v>
       </c>
       <c r="L41" t="n">
-        <v>344.8083818936063</v>
+        <v>102.8381142892153</v>
       </c>
       <c r="M41" t="n">
-        <v>336.8813660948863</v>
+        <v>67.64282070579191</v>
       </c>
       <c r="N41" t="n">
-        <v>335.5166055100142</v>
+        <v>61.92149897629116</v>
       </c>
       <c r="O41" t="n">
-        <v>336.5186342042169</v>
+        <v>78.17053334824146</v>
       </c>
       <c r="P41" t="n">
-        <v>338.1782562920817</v>
+        <v>117.6841293060643</v>
       </c>
       <c r="Q41" t="n">
-        <v>325.1220714413824</v>
+        <v>159.5401647781143</v>
       </c>
       <c r="R41" t="n">
-        <v>315.2938490531682</v>
+        <v>218.9760896158517</v>
       </c>
       <c r="S41" t="n">
-        <v>267.3897500463082</v>
+        <v>232.4490946716583</v>
       </c>
       <c r="T41" t="n">
-        <v>225.5143983667847</v>
+        <v>218.802265886147</v>
       </c>
       <c r="U41" t="n">
-        <v>248.90160553674</v>
+        <v>248.7789394948323</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25721,49 +25721,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>161.7691958893245</v>
+        <v>160.948794407391</v>
       </c>
       <c r="H42" t="n">
-        <v>145.0346254522244</v>
+        <v>137.1112742977616</v>
       </c>
       <c r="I42" t="n">
-        <v>145.55148075</v>
+        <v>117.3052016571149</v>
       </c>
       <c r="J42" t="n">
-        <v>185.500029</v>
+        <v>107.9900802178551</v>
       </c>
       <c r="K42" t="n">
-        <v>201.5931045</v>
+        <v>69.11625642831203</v>
       </c>
       <c r="L42" t="n">
-        <v>202.635780428066</v>
+        <v>24.50430953720269</v>
       </c>
       <c r="M42" t="n">
-        <v>207.8710246109518</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>192.087253921875</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>208.5470075</v>
+        <v>13.35262508576585</v>
       </c>
       <c r="P42" t="n">
-        <v>195.937570843458</v>
+        <v>39.2768703153011</v>
       </c>
       <c r="Q42" t="n">
-        <v>204.7233446008065</v>
+        <v>99.99981508242075</v>
       </c>
       <c r="R42" t="n">
-        <v>213.0562745472973</v>
+        <v>162.1194176251468</v>
       </c>
       <c r="S42" t="n">
-        <v>222.0319792704162</v>
+        <v>206.7933815687133</v>
       </c>
       <c r="T42" t="n">
-        <v>233.1353692460508</v>
+        <v>229.8285755535207</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6991748357862</v>
+        <v>249.64520105408</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25800,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.8667022829468</v>
+        <v>169.1789052395657</v>
       </c>
       <c r="H43" t="n">
-        <v>173.1995317301106</v>
+        <v>167.0843907444132</v>
       </c>
       <c r="I43" t="n">
-        <v>186.7511453295697</v>
+        <v>166.0672124249817</v>
       </c>
       <c r="J43" t="n">
-        <v>185.7308038551168</v>
+        <v>137.103552888073</v>
       </c>
       <c r="K43" t="n">
-        <v>188.681890074408</v>
+        <v>108.7723790343128</v>
       </c>
       <c r="L43" t="n">
-        <v>197.268839061311</v>
+        <v>95.01217681172437</v>
       </c>
       <c r="M43" t="n">
-        <v>203.1789590233724</v>
+        <v>95.36364612318764</v>
       </c>
       <c r="N43" t="n">
-        <v>186.7401087804035</v>
+        <v>81.48840304191189</v>
       </c>
       <c r="O43" t="n">
-        <v>202.4926874858201</v>
+        <v>105.2757017540986</v>
       </c>
       <c r="P43" t="n">
-        <v>201.4272059218784</v>
+        <v>118.2412798751314</v>
       </c>
       <c r="Q43" t="n">
-        <v>221.5760648830646</v>
+        <v>163.9824415504889</v>
       </c>
       <c r="R43" t="n">
-        <v>249.4848999638325</v>
+        <v>218.5590438132605</v>
       </c>
       <c r="S43" t="n">
-        <v>254.7116329346421</v>
+        <v>242.7252062786279</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7883730085969</v>
+        <v>217.8496038232412</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2165540145173</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25879,49 +25879,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>422.2098565259836</v>
+        <v>422.0568960504156</v>
       </c>
       <c r="H44" t="n">
-        <v>349.9597650259403</v>
+        <v>348.3932585555301</v>
       </c>
       <c r="I44" t="n">
-        <v>254.413627538865</v>
+        <v>248.5166188045319</v>
       </c>
       <c r="J44" t="n">
-        <v>147.6228773539549</v>
+        <v>134.6405481907202</v>
       </c>
       <c r="K44" t="n">
-        <v>146.2937966433331</v>
+        <v>126.8366505493073</v>
       </c>
       <c r="L44" t="n">
-        <v>126.9764245374035</v>
+        <v>102.8381142892153</v>
       </c>
       <c r="M44" t="n">
-        <v>94.50134181136147</v>
+        <v>67.64282070579191</v>
       </c>
       <c r="N44" t="n">
-        <v>89.2146190330682</v>
+        <v>61.92149897629116</v>
       </c>
       <c r="O44" t="n">
-        <v>103.9426526760898</v>
+        <v>78.17053334824146</v>
       </c>
       <c r="P44" t="n">
-        <v>139.680036893329</v>
+        <v>117.6841293060643</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.058175334102</v>
+        <v>159.5401647781143</v>
       </c>
       <c r="R44" t="n">
-        <v>228.5844930892465</v>
+        <v>218.9760896158517</v>
       </c>
       <c r="S44" t="n">
-        <v>235.9346815086628</v>
+        <v>232.4490946716583</v>
       </c>
       <c r="T44" t="n">
-        <v>219.4718503679457</v>
+        <v>218.802265886147</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7911763328777</v>
+        <v>248.7789394948323</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25958,49 +25958,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>161.0306354769367</v>
+        <v>160.948794407391</v>
       </c>
       <c r="H45" t="n">
-        <v>137.9016867325838</v>
+        <v>137.1112742977616</v>
       </c>
       <c r="I45" t="n">
-        <v>120.1229753234883</v>
+        <v>117.3052016571149</v>
       </c>
       <c r="J45" t="n">
-        <v>115.7222665296193</v>
+        <v>107.9900802178551</v>
       </c>
       <c r="K45" t="n">
-        <v>82.33179439963286</v>
+        <v>69.11625642831203</v>
       </c>
       <c r="L45" t="n">
-        <v>42.27423123832551</v>
+        <v>24.50430953720269</v>
       </c>
       <c r="M45" t="n">
-        <v>20.73666047215158</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>32.82469745261383</v>
+        <v>13.35262508576585</v>
       </c>
       <c r="P45" t="n">
-        <v>54.90492507792075</v>
+        <v>39.2768703153011</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.4467558195075</v>
+        <v>99.99981508242075</v>
       </c>
       <c r="R45" t="n">
-        <v>167.2007429781635</v>
+        <v>162.1194176251468</v>
       </c>
       <c r="S45" t="n">
-        <v>208.3135435403172</v>
+        <v>206.7933815687133</v>
       </c>
       <c r="T45" t="n">
-        <v>230.1584524961191</v>
+        <v>229.8285755535207</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6505853349712</v>
+        <v>249.64520105408</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26037,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.247518043053</v>
+        <v>169.1789052395657</v>
       </c>
       <c r="H46" t="n">
-        <v>167.6944209426916</v>
+        <v>167.0843907444132</v>
       </c>
       <c r="I46" t="n">
-        <v>168.1305865516738</v>
+        <v>166.0672124249817</v>
       </c>
       <c r="J46" t="n">
-        <v>141.954478094628</v>
+        <v>137.103552888073</v>
       </c>
       <c r="K46" t="n">
-        <v>116.743939294024</v>
+        <v>108.7723790343128</v>
       </c>
       <c r="L46" t="n">
-        <v>105.2130294320152</v>
+        <v>95.01217681172437</v>
       </c>
       <c r="M46" t="n">
-        <v>106.1190149462079</v>
+        <v>95.36364612318764</v>
       </c>
       <c r="N46" t="n">
-        <v>91.98803323375212</v>
+        <v>81.48840304191189</v>
       </c>
       <c r="O46" t="n">
-        <v>114.9738096506548</v>
+        <v>105.2757017540986</v>
       </c>
       <c r="P46" t="n">
-        <v>126.5396865805459</v>
+        <v>118.2412798751314</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.7278282134153</v>
+        <v>163.9824415504889</v>
       </c>
       <c r="R46" t="n">
-        <v>221.644124959155</v>
+        <v>218.5590438132605</v>
       </c>
       <c r="S46" t="n">
-        <v>243.9209403175845</v>
+        <v>242.7252062786279</v>
       </c>
       <c r="T46" t="n">
-        <v>218.1427676199599</v>
+        <v>217.8496038232412</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2165540145173</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.443325790110975e-12</v>
+        <v>365615.0488694224</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.443325790110975e-12</v>
+        <v>365615.0488694224</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.443325790110975e-12</v>
+        <v>365615.0488694224</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.443325790110975e-12</v>
+        <v>365615.0488694224</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.443325790110975e-12</v>
+        <v>365615.0488694224</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-5.443325790110975e-12</v>
+        <v>365615.0488694224</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.443325790110975e-12</v>
+        <v>365615.0488694224</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-5.443325790110975e-12</v>
+        <v>365615.0488694224</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-5.443325790110975e-12</v>
+        <v>365615.0488694224</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.443325790110975e-12</v>
+        <v>365615.0488694224</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-5.443325790110975e-12</v>
+        <v>365615.0488694224</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>330421.9100800841</v>
+        <v>365615.0488694224</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>40623.89431882471</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>40623.89431882471</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>40623.89431882471</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>40623.8943188247</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>40623.89431882471</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40623.89431882471</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>40623.89431882471</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40623.8943188247</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>40623.89431882471</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>40623.89431882471</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40623.8943188247</v>
       </c>
       <c r="P2" t="n">
-        <v>36713.54556445379</v>
+        <v>40623.8943188247</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>306429.7335513992</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>228536.0395340295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>8314.840984438075</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>8314.840984438075</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>8314.840984438075</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>8314.840984438075</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>8314.840984438075</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>8314.840984438075</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>8314.840984438075</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>8314.840984438075</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>8314.840984438075</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>8314.840984438075</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>8314.840984438075</v>
       </c>
       <c r="P5" t="n">
-        <v>7485.374565552011</v>
+        <v>8314.840984438075</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-57447.73632443001</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-57447.73632443001</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-57447.73632443001</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-292137.4030673248</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>14292.33048407444</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>14292.33048407444</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>14292.33048407443</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>14292.33048407444</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>14292.33048407444</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>14292.33048407444</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>14292.33048407443</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>14292.33048407444</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>14292.33048407444</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>14292.33048407443</v>
       </c>
       <c r="P6" t="n">
-        <v>-199307.8685351278</v>
+        <v>14292.33048407443</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>381.4147240567924</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>381.4147240567924</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>381.4147240567924</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>381.4147240567924</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>381.4147240567924</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>381.4147240567924</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>381.4147240567924</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>381.4147240567924</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>381.4147240567924</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>381.4147240567924</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>381.4147240567924</v>
       </c>
       <c r="P3" t="n">
-        <v>343.3658057592666</v>
+        <v>381.4147240567924</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>381.4147240567924</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>343.3658057592665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.533325523846401</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>15.70317002109195</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.11353225808841</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>130.1390871795585</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>195.0447566039767</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>241.970267604391</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>269.2385453890944</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>273.5951065337231</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>258.3481008559754</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>220.4941269860174</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>165.5819066632681</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>96.31775943731654</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>34.94065537464989</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.712132480637622</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.122666041907712</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.8204014819334781</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>7.923351154462802</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>28.2462790928851</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>77.50994878214497</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>132.476848071688</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>178.1314708908633</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>195.1943824142341</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>156.6607005281569</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>104.7235295183857</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>50.93685692215053</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>15.23859770170297</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>3.306793692530114</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.05397378170614989</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.687797043381101</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.11514098569743</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>20.68393290458803</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>48.62725096704384</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>79.90951104009517</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>102.2566622495866</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>107.8153129001848</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>105.2517057384917</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>97.21698573172148</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>83.18592604674694</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>57.59362333257565</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>30.92585615057204</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>11.98642665601427</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.938769185355612</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.03751620236624192</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.533325523846401</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>15.70317002109195</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.11353225808841</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>130.1390871795585</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>195.0447566039767</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>241.970267604391</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>269.2385453890944</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>273.5951065337231</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>258.3481008559754</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>220.4941269860174</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>165.5819066632681</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>96.31775943731654</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>34.94065537464989</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.712132480637622</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.122666041907712</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.8204014819334781</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>7.923351154462802</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>28.2462790928851</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>77.50994878214497</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>132.476848071688</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>178.1314708908633</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>195.1943824142341</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>156.6607005281569</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>104.7235295183857</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>50.93685692215053</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>15.23859770170297</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>3.306793692530114</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.05397378170614989</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.687797043381101</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>6.11514098569743</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>20.68393290458803</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>48.62725096704384</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>79.90951104009517</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>102.2566622495866</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>107.8153129001848</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>105.2517057384917</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>97.21698573172148</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>83.18592604674694</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>57.59362333257565</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>30.92585615057204</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>11.98642665601427</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2.938769185355612</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.03751620236624192</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.533325523846401</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>15.70317002109195</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>59.11353225808841</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>130.1390871795585</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>195.0447566039767</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>241.970267604391</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>269.2385453890944</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>273.5951065337231</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>258.3481008559754</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>220.4941269860174</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>165.5819066632681</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>96.31775943731654</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>34.94065537464989</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.712132480637622</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.122666041907712</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.8204014819334781</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>7.923351154462802</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>28.2462790928851</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>77.50994878214497</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>132.476848071688</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>178.1314708908633</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>195.1943824142341</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>156.6607005281569</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>104.7235295183857</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>50.93685692215053</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>15.23859770170297</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>3.306793692530114</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.05397378170614989</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.687797043381101</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>6.11514098569743</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>20.68393290458803</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>48.62725096704384</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>79.90951104009517</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>102.2566622495866</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>107.8153129001848</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>105.2517057384917</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>97.21698573172148</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>83.18592604674694</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>57.59362333257565</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>30.92585615057204</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>11.98642665601427</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.938769185355612</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.03751620236624192</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.533325523846401</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>15.70317002109195</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>59.11353225808841</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>130.1390871795585</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>195.0447566039767</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>241.970267604391</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>269.2385453890944</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>273.5951065337231</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>258.3481008559754</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>220.4941269860174</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>165.5819066632681</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>96.31775943731654</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>34.94065537464989</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.712132480637622</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.122666041907712</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.8204014819334781</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>7.923351154462802</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>28.2462790928851</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>77.50994878214497</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>132.476848071688</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>178.1314708908633</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>195.1943824142341</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>156.6607005281569</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>104.7235295183857</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>50.93685692215053</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>15.23859770170297</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>3.306793692530114</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.05397378170614989</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.687797043381101</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>6.11514098569743</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>20.68393290458803</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>48.62725096704384</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>79.90951104009517</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>102.2566622495866</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.8153129001848</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>105.2517057384917</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>97.21698573172148</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>83.18592604674694</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>57.59362333257565</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>30.92585615057204</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>11.98642665601427</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>2.938769185355612</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.03751620236624192</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.5333255238464</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>15.70317002109195</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>59.11353225808841</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>130.1390871795585</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>195.0447566039767</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>241.970267604391</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>269.2385453890944</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>273.5951065337231</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>258.3481008559754</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>220.4941269860173</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>165.5819066632681</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>96.31775943731652</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>34.94065537464989</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.712132480637621</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.122666041907712</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.8204014819334779</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>7.923351154462802</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>28.2462790928851</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>77.50994878214496</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>132.476848071688</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>178.1314708908633</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>195.1943824142341</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>156.6607005281569</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>104.7235295183857</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>50.93685692215052</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>15.23859770170297</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>3.306793692530114</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.05397378170614989</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.6877970433811009</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>6.115140985697429</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>20.68393290458802</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>48.62725096704384</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>79.90951104009515</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>102.2566622495866</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>107.8153129001847</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>105.2517057384916</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>97.21698573172148</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>83.18592604674694</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>57.59362333257565</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>30.92585615057204</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>11.98642665601427</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>2.938769185355612</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.03751620236624191</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.533325523846401</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>15.70317002109195</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>59.11353225808841</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>130.1390871795585</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>195.0447566039767</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>241.970267604391</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>269.2385453890944</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>273.5951065337231</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>258.3481008559754</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>220.4941269860174</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>165.5819066632681</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>96.31775943731654</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>34.94065537464989</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.712132480637622</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.122666041907712</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.8204014819334781</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>7.923351154462802</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>28.2462790928851</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>77.50994878214497</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>132.476848071688</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>178.1314708908633</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>195.1943824142341</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>156.6607005281569</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>104.7235295183857</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>50.93685692215053</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>15.23859770170297</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>3.306793692530114</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.05397378170614989</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.687797043381101</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>6.11514098569743</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>20.68393290458803</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>48.62725096704384</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>79.90951104009517</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>102.2566622495866</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>107.8153129001848</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>105.2517057384917</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>97.21698573172148</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>83.18592604674694</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>57.59362333257565</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>30.92585615057204</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>11.98642665601427</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2.938769185355612</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.03751620236624192</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.533325523846401</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>15.70317002109195</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>59.11353225808841</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>130.1390871795585</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>195.0447566039767</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>241.970267604391</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>269.2385453890944</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>273.5951065337231</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>258.3481008559754</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>220.4941269860174</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>165.5819066632681</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>96.31775943731654</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>34.94065537464989</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>6.712132480637622</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.122666041907712</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.8204014819334781</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>7.923351154462802</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>28.2462790928851</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>77.50994878214497</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>132.476848071688</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>178.1314708908633</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>195.1943824142341</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>156.6607005281569</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>104.7235295183857</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>50.93685692215053</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>15.23859770170297</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>3.306793692530114</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.05397378170614989</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.687797043381101</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>6.11514098569743</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>20.68393290458803</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>48.62725096704384</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>79.90951104009517</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>102.2566622495866</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>107.8153129001848</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>105.2517057384917</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>97.21698573172148</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>83.18592604674694</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>57.59362333257565</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>30.92585615057204</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>11.98642665601427</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2.938769185355612</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.03751620236624192</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.533325523846401</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>15.70317002109195</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>59.11353225808841</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>130.1390871795585</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>195.0447566039767</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>241.970267604391</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>269.2385453890944</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>273.5951065337231</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>258.3481008559754</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>220.4941269860174</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>165.5819066632681</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>96.31775943731654</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>34.94065537464989</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>6.712132480637622</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.122666041907712</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.8204014819334781</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>7.923351154462802</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>28.2462790928851</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>77.50994878214497</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>132.476848071688</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>178.1314708908633</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>195.1943824142341</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>156.6607005281569</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>104.7235295183857</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>50.93685692215053</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>15.23859770170297</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>3.306793692530114</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.05397378170614989</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.687797043381101</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>6.11514098569743</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>20.68393290458803</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>48.62725096704384</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>79.90951104009517</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>102.2566622495866</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>107.8153129001848</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>105.2517057384917</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>97.21698573172148</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>83.18592604674694</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>57.59362333257565</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>30.92585615057204</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>11.98642665601427</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2.938769185355612</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.03751620236624192</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.533325523846401</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>15.70317002109195</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>59.11353225808841</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>130.1390871795585</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>195.0447566039767</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>241.970267604391</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>269.2385453890944</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>273.5951065337231</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>258.3481008559754</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>220.4941269860174</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>165.5819066632681</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>96.31775943731654</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>34.94065537464989</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.712132480637622</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.122666041907712</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.8204014819334781</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>7.923351154462802</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>28.2462790928851</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>77.50994878214497</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>132.476848071688</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>178.1314708908633</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>195.1943824142341</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>156.6607005281569</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>104.7235295183857</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>50.93685692215053</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>15.23859770170297</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>3.306793692530114</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.05397378170614989</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.687797043381101</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>6.11514098569743</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>20.68393290458803</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>48.62725096704384</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>79.90951104009517</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>102.2566622495866</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>107.8153129001848</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>105.2517057384917</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>97.21698573172148</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>83.18592604674694</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>57.59362333257565</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>30.92585615057204</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>11.98642665601427</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>2.938769185355612</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.03751620236624192</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.533325523846401</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>15.70317002109195</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>59.11353225808841</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>130.1390871795585</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>195.0447566039767</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>241.970267604391</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>269.2385453890944</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>273.5951065337231</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>258.3481008559754</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>220.4941269860174</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>165.5819066632681</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>96.31775943731654</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>34.94065537464989</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.712132480637622</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.122666041907712</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.8204014819334781</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>7.923351154462802</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>28.2462790928851</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>77.50994878214497</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>132.476848071688</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>178.1314708908633</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>195.1943824142341</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>156.6607005281569</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>104.7235295183857</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>50.93685692215053</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>15.23859770170297</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>3.306793692530114</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.05397378170614989</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.687797043381101</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.11514098569743</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>20.68393290458803</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>48.62725096704384</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>79.90951104009517</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>102.2566622495866</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>107.8153129001848</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>105.2517057384917</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>97.21698573172148</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>83.18592604674694</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>57.59362333257565</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>30.92585615057204</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>11.98642665601427</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>2.938769185355612</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.03751620236624192</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.533325523846401</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>15.70317002109195</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>59.11353225808841</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>130.1390871795585</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>195.0447566039767</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>241.970267604391</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>269.2385453890944</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>273.5951065337231</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>258.3481008559754</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>220.4941269860174</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>165.5819066632681</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>96.31775943731654</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>34.94065537464989</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>6.712132480637622</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.122666041907712</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.8204014819334781</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>7.923351154462802</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>28.2462790928851</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>77.50994878214497</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>132.476848071688</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>178.1314708908633</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>195.1943824142341</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>156.6607005281569</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>104.7235295183857</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>50.93685692215053</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>15.23859770170297</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>3.306793692530114</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.05397378170614989</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.687797043381101</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>6.11514098569743</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>20.68393290458803</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>48.62725096704384</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>79.90951104009517</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>102.2566622495866</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>107.8153129001848</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>105.2517057384917</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>97.21698573172148</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>83.18592604674694</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>57.59362333257565</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>30.92585615057204</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>11.98642665601427</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>2.938769185355612</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.03751620236624192</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.380365048278458</v>
+        <v>1.533325523846401</v>
       </c>
       <c r="H44" t="n">
-        <v>14.13666355068176</v>
+        <v>15.70317002109195</v>
       </c>
       <c r="I44" t="n">
-        <v>53.21652352375528</v>
+        <v>59.11353225808841</v>
       </c>
       <c r="J44" t="n">
-        <v>117.1567580163238</v>
+        <v>130.1390871795585</v>
       </c>
       <c r="K44" t="n">
-        <v>175.587610509951</v>
+        <v>195.0447566039767</v>
       </c>
       <c r="L44" t="n">
-        <v>217.8319573562029</v>
+        <v>241.970267604391</v>
       </c>
       <c r="M44" t="n">
-        <v>242.3800242835249</v>
+        <v>269.2385453890944</v>
       </c>
       <c r="N44" t="n">
-        <v>246.301986476946</v>
+        <v>273.5951065337231</v>
       </c>
       <c r="O44" t="n">
-        <v>232.5759815281271</v>
+        <v>258.3481008559754</v>
       </c>
       <c r="P44" t="n">
-        <v>198.4982193987527</v>
+        <v>220.4941269860174</v>
       </c>
       <c r="Q44" t="n">
-        <v>149.0638961072804</v>
+        <v>165.5819066632681</v>
       </c>
       <c r="R44" t="n">
-        <v>86.70935596392172</v>
+        <v>96.31775943731654</v>
       </c>
       <c r="S44" t="n">
-        <v>31.45506853764538</v>
+        <v>34.94065537464989</v>
       </c>
       <c r="T44" t="n">
-        <v>6.04254799883895</v>
+        <v>6.712132480637622</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.122666041907712</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7385604123878564</v>
+        <v>0.8204014819334781</v>
       </c>
       <c r="H45" t="n">
-        <v>7.132938719640613</v>
+        <v>7.923351154462802</v>
       </c>
       <c r="I45" t="n">
-        <v>25.42850542651172</v>
+        <v>28.2462790928851</v>
       </c>
       <c r="J45" t="n">
-        <v>69.77776247038078</v>
+        <v>77.50994878214497</v>
       </c>
       <c r="K45" t="n">
-        <v>119.2613101003672</v>
+        <v>132.476848071688</v>
       </c>
       <c r="L45" t="n">
-        <v>160.3615491897405</v>
+        <v>178.1314708908633</v>
       </c>
       <c r="M45" t="n">
-        <v>187.1343641388002</v>
+        <v>207.8710246109518</v>
       </c>
       <c r="N45" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O45" t="n">
-        <v>175.7223100473861</v>
+        <v>195.1943824142341</v>
       </c>
       <c r="P45" t="n">
-        <v>141.0326457655372</v>
+        <v>156.6607005281569</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.276588781299</v>
+        <v>104.7235295183857</v>
       </c>
       <c r="R45" t="n">
-        <v>45.85553156913376</v>
+        <v>50.93685692215053</v>
       </c>
       <c r="S45" t="n">
-        <v>13.71843573009899</v>
+        <v>15.23859770170297</v>
       </c>
       <c r="T45" t="n">
-        <v>2.976916749931753</v>
+        <v>3.306793692530114</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04858950081499057</v>
+        <v>0.05397378170614989</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6191842398937593</v>
+        <v>0.687797043381101</v>
       </c>
       <c r="H46" t="n">
-        <v>5.505110787419063</v>
+        <v>6.11514098569743</v>
       </c>
       <c r="I46" t="n">
-        <v>18.62055877789597</v>
+        <v>20.68393290458803</v>
       </c>
       <c r="J46" t="n">
-        <v>43.77632576048878</v>
+        <v>48.62725096704384</v>
       </c>
       <c r="K46" t="n">
-        <v>71.93795078038401</v>
+        <v>79.90951104009517</v>
       </c>
       <c r="L46" t="n">
-        <v>92.05580962929582</v>
+        <v>102.2566622495866</v>
       </c>
       <c r="M46" t="n">
-        <v>97.05994407716445</v>
+        <v>107.8153129001848</v>
       </c>
       <c r="N46" t="n">
-        <v>94.75207554665143</v>
+        <v>105.2517057384917</v>
       </c>
       <c r="O46" t="n">
-        <v>87.51887783516521</v>
+        <v>97.21698573172148</v>
       </c>
       <c r="P46" t="n">
-        <v>74.88751934133246</v>
+        <v>83.18592604674694</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.84823666964925</v>
+        <v>57.59362333257565</v>
       </c>
       <c r="R46" t="n">
-        <v>27.84077500467757</v>
+        <v>30.92585615057204</v>
       </c>
       <c r="S46" t="n">
-        <v>10.7906926170576</v>
+        <v>11.98642665601427</v>
       </c>
       <c r="T46" t="n">
-        <v>2.645605388636971</v>
+        <v>2.938769185355612</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.03751620236624192</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
